--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105A2AD4-9F52-49CD-93BB-635851F38245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD5B21-E0E1-45D2-892E-EEFAA06DD92C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,6 +590,10 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,7 +1054,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1132,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1147,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1162,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1177,10 +1177,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1192,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1207,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1522,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1568,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1616,27 +1616,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1648,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1662,11 +1660,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1678,13 +1676,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1692,11 +1690,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1708,13 +1706,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -1722,11 +1720,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1738,13 +1736,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1753,10 +1751,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2050,7 +2048,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2068,7 +2066,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2102,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2114,7 +2112,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2162,24 +2160,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -2192,13 +2188,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2206,7 +2202,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2220,19 +2216,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2246,23 +2242,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2573,554 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A4D9CD-8E0B-4698-B688-66BE3741A8B6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table library (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>library_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>library_name varchar (30),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>library_kind varchar (30),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>library_alcon double ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>library_from varchar (20),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>library_remarks varchar (50),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">library_public boolean </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C45B7B5-98BA-4466-94BC-1A504769D3AC}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3138,7 +2588,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3172,7 +2622,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3184,7 +2634,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3224,7 +2674,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table bookmark (</v>
+        <v>create table library (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3232,29 +2682,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>bookmark_id int ,</v>
+        <v>library_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3262,27 +2710,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>library_id int ,</v>
+        <v>library_name varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3290,27 +2738,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>library_kind varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3318,17 +2766,15 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3336,17 +2782,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>bookmark_remarks varchar (50)</v>
+        <v>library_alcon double ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3354,17 +2808,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>library_from varchar (20),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3372,25 +2834,35 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>library_remarks varchar (50),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">library_public boolean </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3639,12 +3111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C45B7B5-98BA-4466-94BC-1A504769D3AC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3662,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3696,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3708,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3748,7 +3220,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table physical (</v>
+        <v>create table bookmark (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3756,29 +3228,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>bookmark_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3786,29 +3256,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>physical_const int (1),</v>
+        <v>library_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3816,39 +3284,45 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>physical_condition int (2)</v>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3856,7 +3330,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>bookmark_remarks varchar (50)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4159,12 +3633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4182,7 +3656,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4216,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4228,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4268,7 +3742,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table count (</v>
+        <v>create table physical (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4276,24 +3750,540 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>physical_const int (1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>physical_condition int (2)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table count (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -4306,23 +4296,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4334,19 +4324,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4360,19 +4350,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4794,13 +4784,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4820,7 +4810,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4840,7 +4830,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4860,7 +4850,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD5B21-E0E1-45D2-892E-EEFAA06DD92C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A283C6F-3ADD-489E-A465-6D849E4EA4F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="schedule" sheetId="5" r:id="rId3"/>
-    <sheet name="library" sheetId="6" r:id="rId4"/>
-    <sheet name="bookmark" sheetId="7" r:id="rId5"/>
-    <sheet name="physical" sheetId="8" r:id="rId6"/>
-    <sheet name="count" sheetId="9" r:id="rId7"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="schedules" sheetId="5" r:id="rId3"/>
+    <sheet name="libraries" sheetId="6" r:id="rId4"/>
+    <sheet name="bookmarks" sheetId="7" r:id="rId5"/>
+    <sheet name="physicals" sheetId="8" r:id="rId6"/>
+    <sheet name="counts" sheetId="9" r:id="rId7"/>
     <sheet name="sheet" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -199,31 +199,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニックネーム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_mail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -234,10 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_birth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -312,26 +292,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule</t>
-  </si>
-  <si>
-    <t>schedule</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュールID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>schedule_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -342,10 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予定日時</t>
     <rPh sb="0" eb="3">
       <t>ヨテイビ</t>
@@ -356,10 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>schedule_dt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,10 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お酒ID</t>
     <rPh sb="1" eb="2">
       <t>サケ</t>
@@ -392,10 +345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銘柄</t>
     <rPh sb="0" eb="2">
       <t>メイガラ</t>
@@ -403,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
@@ -414,10 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_kind</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>度数</t>
     <rPh sb="0" eb="2">
       <t>ドスウ</t>
@@ -425,10 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_alcon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,14 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_from</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>library_remarks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>公開</t>
     <rPh sb="0" eb="2">
       <t>コウカイ</t>
@@ -455,10 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>library_public</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,10 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookmark</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入りID</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -487,14 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookmark_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookmark_remarks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>library_idと同じ</t>
     <rPh sb="11" eb="12">
       <t>オナ</t>
@@ -509,18 +422,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
-    <t>physical</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンディション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>physical_const</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -538,10 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>physical_condition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>集計</t>
     <rPh sb="0" eb="2">
       <t>シュウケイ</t>
@@ -549,13 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>集計ID</t>
     <rPh sb="0" eb="2">
       <t>シュウケイ</t>
@@ -563,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>count_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飲酒量</t>
     <rPh sb="0" eb="3">
       <t>インシュリョウ</t>
@@ -581,19 +468,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>count_alcohol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>count_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedules</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作日時</t>
+    <rPh sb="0" eb="4">
+      <t>セイサクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on update current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physicals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedules_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedules_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>schedules_dt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_alcon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmarks_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmarks_remarks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physicals_const</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physicals_condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counts_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counts_alcohol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counts_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1102,13 +1127,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45086</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -1132,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1147,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1162,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1177,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1192,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1207,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1504,7 +1533,1113 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table users (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>users_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>users_name varchar (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>users_password varchar (200),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>users_birthday char (8),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>users_mail varchar (100),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8013C0-1E77-4F33-8F71-7888FE671837}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table schedules (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>schedules_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>schedules_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>schedules_dt timestamp ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>users_id int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A4D9CD-8E0B-4698-B688-66BE3741A8B6}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1608,7 +2743,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table libraries (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1616,29 +2751,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>libraries_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1646,29 +2779,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name varchar (10),</v>
+        <v>libraries_name varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1676,29 +2807,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (200),</v>
+        <v>libraries_kind varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1706,29 +2835,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_birth char (8),</v>
+        <v>libraries_alcon double ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1736,39 +2859,43 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
+        <v>libraries_from varchar (20),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1776,61 +2903,91 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>libraries_remarks varchar (50),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>libraries_public boolean ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2043,12 +3200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8013C0-1E77-4F33-8F71-7888FE671837}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C45B7B5-98BA-4466-94BC-1A504769D3AC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2100,7 +3257,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2112,7 +3269,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2152,7 +3309,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table schedule (</v>
+        <v>create table bookmarks (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2160,27 +3317,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>schedule_id int ,</v>
+        <v>bookmarks_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2188,27 +3345,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>schedule_name varchar (20),</v>
+        <v>libraries_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2216,25 +3373,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>schedule_dt timestamp ,</v>
+        <v>users_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2242,63 +3401,81 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_id int </v>
+        <v>bookmarks_remarks varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2565,12 +3742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A4D9CD-8E0B-4698-B688-66BE3741A8B6}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2588,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2622,7 +3799,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2634,7 +3811,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2674,7 +3851,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table library (</v>
+        <v>create table physicals (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2682,27 +3859,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>library_id int ,</v>
+        <v>users_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2710,27 +3887,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>library_name varchar (30),</v>
+        <v>physicals_const int (1),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2738,27 +3917,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>library_kind varchar (30),</v>
+        <v>physicals_condition int (2),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2766,23 +3947,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>library_alcon double ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2790,43 +3975,37 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>library_from varchar (20),</v>
+        <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>50</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2834,35 +4013,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>library_remarks varchar (50),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">library_public boolean </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3111,12 +4280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C45B7B5-98BA-4466-94BC-1A504769D3AC}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3134,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3168,7 +4337,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3180,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3220,7 +4389,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table bookmark (</v>
+        <v>create table counts (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3228,27 +4397,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>bookmark_id int ,</v>
+        <v>counts_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3256,27 +4425,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>library_id int ,</v>
+        <v>users_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3284,27 +4453,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v>counts_alcohol int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3312,1099 +4479,81 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3">
-        <v>50</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>bookmark_remarks varchar (50)</v>
+        <v>counts_date date ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table physical (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>physical_const int (1),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>physical_condition int (2)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table count (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>count_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>count_alcohol int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">count_date date </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4784,13 +4933,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4810,7 +4959,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4830,7 +4979,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4850,7 +4999,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A283C6F-3ADD-489E-A465-6D849E4EA4F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CE1436-D4AF-40D3-BEB2-53859B5A3523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -620,6 +620,9 @@
   <si>
     <t>counts_date</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_name</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1533,7 +1536,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3746,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -4285,7 +4288,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4342,7 +4345,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -4354,7 +4359,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -4425,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4440,12 +4447,10 @@
         <v>29</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_id int ,</v>
+        <v>users_name varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CE1436-D4AF-40D3-BEB2-53859B5A3523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D84CBF-F793-49E1-916D-287BC5FE3ACF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,10 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>physicals_const</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>physicals_condition</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,7 +614,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users_name</t>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール耐性</t>
+    <rPh sb="5" eb="7">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physicals_resistance</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1082,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,7 +1171,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -1182,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
@@ -1197,7 +1201,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1212,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
@@ -1224,10 +1228,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -1242,7 +1246,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1536,7 +1540,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1600,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1648,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -1681,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -1711,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -1741,7 +1745,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>35</v>
@@ -1771,7 +1775,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
@@ -1798,10 +1802,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -1813,7 +1817,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -1826,10 +1830,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>44</v>
@@ -1841,7 +1845,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
@@ -2099,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8013C0-1E77-4F33-8F71-7888FE671837}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2164,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2215,7 +2219,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -2243,7 +2247,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -2271,7 +2275,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
@@ -2294,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
@@ -2322,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -2337,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -2350,10 +2354,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -2365,7 +2369,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -2706,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2757,7 +2761,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -2785,7 +2789,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -2813,7 +2817,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -2841,7 +2845,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -2865,7 +2869,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>32</v>
@@ -2891,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -2917,7 +2921,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -2942,10 +2946,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>44</v>
@@ -2957,7 +2961,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -2970,10 +2974,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>44</v>
@@ -2985,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
@@ -3208,7 +3212,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3272,7 +3276,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3323,7 +3327,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -3351,7 +3355,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
@@ -3376,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -3407,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -3430,10 +3434,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -3445,7 +3449,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -3458,10 +3462,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -3473,7 +3477,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -3749,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8545410A-22A4-4E66-8869-9A2C3A87BB67}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3802,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3814,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3862,10 +3866,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -3890,10 +3894,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
@@ -3912,7 +3916,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>physicals_const int (1),</v>
+        <v>physicals_resistance int (1),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3923,7 +3927,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -3950,10 +3954,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>44</v>
@@ -3965,7 +3969,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -3978,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -3993,7 +3997,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -4287,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4354,7 +4358,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4407,7 +4411,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -4432,10 +4436,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -4450,7 +4454,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_name varchar ,</v>
+        <v>users_id varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4461,7 +4465,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -4487,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
@@ -4510,10 +4514,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -4525,7 +4529,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -4538,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -4553,7 +4557,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D84CBF-F793-49E1-916D-287BC5FE3ACF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905DDE7-E7B6-48AE-897E-B56D60CEA380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -626,6 +626,14 @@
   </si>
   <si>
     <t>physicals_resistance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィジカルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>physicals_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2103,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8013C0-1E77-4F33-8F71-7888FE671837}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3754,7 +3762,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3866,26 +3874,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>users_id int ,</v>
       </c>
     </row>
@@ -3894,28 +3902,24 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>physicals_resistance int (1),</v>
       </c>
     </row>
@@ -3924,16 +3928,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3942,10 +3946,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>physicals_condition int (2),</v>
       </c>
     </row>
@@ -3954,26 +3958,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -3982,10 +3988,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>44</v>
@@ -3997,30 +4003,40 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at timestamp </v>
+      <c r="L14" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -4037,7 +4053,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4291,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4442,7 +4458,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4454,7 +4470,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>users_id varchar ,</v>
+        <v>users_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2905DDE7-E7B6-48AE-897E-B56D60CEA380}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE8964-774A-4C19-B3A2-25CA551CFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -562,10 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>libraries_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>libraries_kind</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,6 +630,21 @@
   </si>
   <si>
     <t>physicals_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libraries_genre</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1098,21 +1109,21 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1165,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1186,7 +1197,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1201,7 +1212,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1216,7 +1227,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1231,12 +1242,12 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>82</v>
@@ -1246,7 +1257,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1261,7 +1272,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1272,7 +1283,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1283,7 +1294,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1294,7 +1305,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1305,7 +1316,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1316,7 +1327,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1327,7 +1338,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1338,7 +1349,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1349,7 +1360,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1360,7 +1371,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1371,7 +1382,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1382,7 +1393,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1393,7 +1404,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1404,7 +1415,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1415,7 +1426,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1426,7 +1437,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1437,7 +1448,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1448,7 +1459,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1459,7 +1470,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1470,7 +1481,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1481,7 +1492,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1492,7 +1503,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1503,7 +1514,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1514,7 +1525,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1525,7 +1536,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1551,25 +1562,25 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1618,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1630,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,12 +1666,12 @@
         <v>create table users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>68</v>
@@ -1685,7 +1696,7 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>users_name varchar (10),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1745,7 +1756,7 @@
         <v>users_password varchar (200),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>users_birthday char (8),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1805,7 +1816,7 @@
         <v>users_mail varchar (100),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1833,7 +1844,7 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1933,7 +1944,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1969,7 +1980,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1987,7 +1998,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2005,7 +2016,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2059,7 +2070,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2077,7 +2088,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2115,25 +2126,25 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2171,7 +2182,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2183,7 +2194,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>create table schedules (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>schedules_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>schedules_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2301,12 +2312,12 @@
         <v>schedules_dt timestamp ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>68</v>
@@ -2329,7 +2340,7 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2357,7 +2368,7 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2385,7 +2396,7 @@
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2421,7 +2432,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2457,7 +2468,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2475,7 +2486,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2511,7 +2522,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2529,7 +2540,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2547,7 +2558,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2619,7 +2630,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2637,7 +2648,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2653,29 +2664,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A4D9CD-8E0B-4698-B688-66BE3741A8B6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2689,7 +2700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2713,7 +2724,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2725,7 +2736,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2772,7 @@
         <v>create table libraries (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>libraries_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -2814,18 +2825,18 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>libraries_name varchar (30),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_description varchar (30),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -2842,49 +2853,51 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>libraries_kind varchar (30),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_genre varchar (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>libraries_alcon double ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_kind varchar (30),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2892,24 +2905,24 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>libraries_from varchar (20),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_alcon double ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2918,49 +2931,47 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>libraries_remarks varchar (50),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_from varchar (20),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>libraries_public boolean ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_remarks varchar (50),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2968,24 +2979,24 @@
       <c r="H17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>80</v>
+      <c r="I17" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>libraries_public boolean ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>44</v>
@@ -2997,33 +3008,43 @@
         <v>29</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at timestamp </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">updated_at timestamp </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3041,7 +3062,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3059,7 +3080,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3077,7 +3098,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3095,7 +3116,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3113,7 +3134,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3149,7 +3170,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3167,7 +3188,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3185,7 +3206,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3203,7 +3224,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3223,25 +3244,25 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3255,7 +3276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3267,7 +3288,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3279,7 +3300,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3291,7 +3312,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3348,7 @@
         <v>create table bookmarks (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3335,7 +3356,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -3355,7 +3376,7 @@
         <v>bookmarks_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3383,12 +3404,12 @@
         <v>libraries_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>68</v>
@@ -3411,7 +3432,7 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3419,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -3437,7 +3458,7 @@
         <v>bookmarks_remarks varchar (50),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3473,7 +3494,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -3493,7 +3514,7 @@
         <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3511,7 +3532,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3547,7 +3568,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3565,7 +3586,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3583,7 +3604,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3601,7 +3622,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3619,7 +3640,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3637,7 +3658,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3673,7 +3694,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3709,7 +3730,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3727,7 +3748,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3745,7 +3766,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3765,25 +3786,25 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3809,19 +3830,19 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3854,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3869,15 +3890,15 @@
         <v>create table physicals (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -3897,12 +3918,12 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
@@ -3923,15 +3944,15 @@
         <v>physicals_resistance int (1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -3953,7 +3974,7 @@
         <v>physicals_condition int (2),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3961,7 +3982,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
@@ -3983,7 +4004,7 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4011,7 +4032,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4019,7 +4040,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -4039,7 +4060,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4075,7 +4096,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4111,7 +4132,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4129,7 +4150,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4147,7 +4168,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4165,7 +4186,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4183,7 +4204,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4201,7 +4222,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4219,7 +4240,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4273,7 +4294,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4291,7 +4312,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4307,29 +4328,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4343,7 +4364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4355,7 +4376,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4369,7 +4390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4383,7 +4404,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4419,7 +4440,7 @@
         <v>create table counts (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4427,7 +4448,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -4447,12 +4468,12 @@
         <v>counts_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>68</v>
@@ -4473,7 +4494,7 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
@@ -4499,7 +4520,7 @@
         <v>counts_alcohol int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4507,7 +4528,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
@@ -4525,7 +4546,7 @@
         <v>counts_date date ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4553,7 +4574,7 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4561,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>44</v>
@@ -4581,7 +4602,7 @@
         <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4599,7 +4620,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4617,7 +4638,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4635,7 +4656,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4653,7 +4674,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4671,7 +4692,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4689,7 +4710,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4707,7 +4728,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4725,7 +4746,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4743,7 +4764,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4761,7 +4782,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4779,7 +4800,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4815,7 +4836,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4833,7 +4854,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4851,23 +4872,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4881,7 +4902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +4914,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4903,7 +4924,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4934,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4949,7 +4970,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4973,7 +4994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4993,7 +5014,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5013,7 +5034,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -5033,7 +5054,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -5051,7 +5072,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -5069,7 +5090,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5087,7 +5108,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5105,7 +5126,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5123,7 +5144,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5141,7 +5162,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5159,7 +5180,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5177,7 +5198,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5195,7 +5216,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5213,7 +5234,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5231,7 +5252,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5249,7 +5270,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5267,7 +5288,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5285,7 +5306,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5303,7 +5324,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5321,7 +5342,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/doc/04_DB定義書_美酒乱-Michelin-.xlsx
+++ b/doc/04_DB定義書_美酒乱-Michelin-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE8964-774A-4C19-B3A2-25CA551CFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F893681-E631-4395-A615-0A51FB2F5E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="bookmarks" sheetId="7" r:id="rId5"/>
     <sheet name="physicals" sheetId="8" r:id="rId6"/>
     <sheet name="counts" sheetId="9" r:id="rId7"/>
-    <sheet name="sheet" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="107">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -181,9 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>santé !</t>
-  </si>
-  <si>
     <t>佐々倉皆</t>
     <rPh sb="0" eb="4">
       <t>ササクラミナ</t>
@@ -195,10 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>santé !</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ニックネーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -645,6 +637,10 @@
   </si>
   <si>
     <t>libraries_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sante</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1105,39 +1101,39 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1149,15 +1145,15 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1161,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1182,368 +1178,368 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1559,42 +1555,42 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1606,31 +1602,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1666,48 +1662,48 @@
         <v>create table users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1715,29 +1711,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>users_name varchar (10),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1745,29 +1741,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>users_password varchar (200),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>8</v>
@@ -1775,29 +1771,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>users_birthday char (8),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1806,37 +1802,37 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>users_mail varchar (100),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -1844,27 +1840,27 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
@@ -1872,7 +1868,7 @@
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1890,7 +1886,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1908,7 +1904,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1926,7 +1922,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1944,7 +1940,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1962,7 +1958,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2016,7 +2012,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2106,7 +2102,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2123,42 +2119,42 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2170,31 +2166,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2230,25 +2226,25 @@
         <v>create table schedules (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2258,18 +2254,18 @@
         <v>schedules_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2277,7 +2273,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2286,24 +2282,24 @@
         <v>schedules_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2312,55 +2308,55 @@
         <v>schedules_dt timestamp ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -2368,27 +2364,27 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -2396,7 +2392,7 @@
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2594,7 +2590,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2630,7 +2626,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2664,43 +2660,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A4D9CD-8E0B-4698-B688-66BE3741A8B6}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2712,31 +2708,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2772,25 +2768,25 @@
         <v>create table libraries (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2800,18 +2796,18 @@
         <v>libraries_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
@@ -2819,7 +2815,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2828,18 +2824,18 @@
         <v>libraries_description varchar (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -2847,7 +2843,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2856,18 +2852,18 @@
         <v>libraries_genre varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -2875,7 +2871,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2884,18 +2880,18 @@
         <v>libraries_kind varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2908,18 +2904,18 @@
         <v>libraries_alcon double ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2934,7 +2930,7 @@
         <v>libraries_from varchar (20),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2942,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3">
         <v>50</v>
@@ -2960,24 +2956,24 @@
         <v>libraries_remarks varchar (50),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>0</v>
@@ -2988,27 +2984,27 @@
         <v>libraries_public boolean ,</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
@@ -3016,27 +3012,27 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3044,7 +3040,7 @@
         <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3116,7 +3112,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3170,7 +3166,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3206,7 +3202,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3241,42 +3237,42 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3288,31 +3284,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3348,25 +3344,25 @@
         <v>create table bookmarks (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3376,63 +3372,63 @@
         <v>bookmarks_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>libraries_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3440,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -3458,27 +3454,27 @@
         <v>bookmarks_remarks varchar (50),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -3486,27 +3482,27 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -3514,7 +3510,7 @@
         <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3586,7 +3582,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3622,7 +3618,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3658,7 +3654,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3676,7 +3672,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3712,7 +3708,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3730,7 +3726,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3748,7 +3744,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3783,42 +3779,42 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3830,31 +3826,31 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3890,25 +3886,25 @@
         <v>create table physicals (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3918,18 +3914,18 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3937,25 +3933,25 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>physicals_resistance int (1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -3963,29 +3959,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>physicals_condition int (2),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -3993,38 +3989,38 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
@@ -4032,27 +4028,27 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
@@ -4060,7 +4056,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4078,7 +4074,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4114,7 +4110,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4132,7 +4128,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4150,7 +4146,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4186,7 +4182,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4240,7 +4236,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4258,7 +4254,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4312,7 +4308,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -4328,43 +4324,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08BA007-F871-4932-A361-491DCCBB0C8D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4376,26 +4372,26 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4404,7 +4400,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4440,25 +4436,25 @@
         <v>create table counts (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4468,24 +4464,24 @@
         <v>counts_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4494,24 +4490,24 @@
         <v>users_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4520,24 +4516,24 @@
         <v>counts_alcohol int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4546,27 +4542,27 @@
         <v>counts_date date ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -4574,27 +4570,27 @@
         <v>created_at timestamp ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -4602,7 +4598,7 @@
         <v xml:space="preserve">updated_at timestamp </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4620,7 +4616,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4656,7 +4652,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4674,7 +4670,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4692,7 +4688,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4710,7 +4706,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4764,7 +4760,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4800,7 +4796,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4818,7 +4814,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4836,7 +4832,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4854,495 +4850,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49087F-E148-4FE1-9205-DB1514C4BE19}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
